--- a/data/trans_camb/P1001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,97</t>
+          <t>-2,42; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 11,63</t>
+          <t>1,7; 11,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,02</t>
+          <t>0,08; 5,93</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>203,0%</t>
+          <t>208,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>104,61%</t>
+          <t>98,04%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,05; 287,05</t>
+          <t>-73,2; 264,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 620,05</t>
+          <t>37,17; 609,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 309,83</t>
+          <t>0,28; 306,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,85</t>
+          <t>-2,93; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,04</t>
+          <t>-4,79; 2,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,8</t>
+          <t>-2,92; 1,28</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,59%</t>
+          <t>-28,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>-22,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>-18,79%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,42; 80,38</t>
+          <t>-76,31; 86,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 51,52</t>
+          <t>-56,18; 36,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 42,64</t>
+          <t>-50,68; 27,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,53</t>
+          <t>-0,82; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,56</t>
+          <t>-3,65; 1,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,2</t>
+          <t>-1,59; 2,2</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,62%</t>
+          <t>-14,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 151,28</t>
+          <t>-19,55; 152,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 27,97</t>
+          <t>-44,78; 27,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 48,02</t>
+          <t>-25,56; 48,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,99</t>
+          <t>-5,86; 1,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,14</t>
+          <t>-5,61; 1,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,88</t>
+          <t>-5,41; 0,59</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>-21,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,61%</t>
+          <t>-22,86%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 62,86</t>
+          <t>-70,52; 30,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 24,74</t>
+          <t>-42,41; 17,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 24,73</t>
+          <t>-54,88; 6,07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,34</t>
+          <t>-4,62; 2,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 6,15</t>
+          <t>-1,32; 5,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,52</t>
+          <t>-1,86; 3,39</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 39,03</t>
+          <t>-44,18; 37,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 73,02</t>
+          <t>-10,19; 70,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 43,86</t>
+          <t>-16,04; 41,53</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-4,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,82</t>
+          <t>-5,02; 5,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,17</t>
+          <t>-8,08; 1,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -1,24</t>
+          <t>-8,68; -0,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,64; 16,9</t>
+          <t>2,87; 14,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,03</t>
+          <t>1,83; 13,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,43</t>
+          <t>-13,29; 2,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,02</t>
+          <t>0,95; 8,54</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,22</t>
+          <t>-1,24; 5,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,66</t>
+          <t>-10,21; -0,41</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>-28,24%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-32,19%</t>
+          <t>-35,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>73,2%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>54,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>-29,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-30,43%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 55,61</t>
+          <t>-35,77; 59,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 1,53</t>
+          <t>-56,44; 12,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -10,08</t>
+          <t>-57,9; -1,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>40,64; 118,39</t>
+          <t>16,01; 120,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,93; 91,39</t>
+          <t>10,99; 112,56</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 42,63</t>
+          <t>-75,57; 18,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>24,51; 78,45</t>
+          <t>5,16; 73,92</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,34; 44,87</t>
+          <t>-8,62; 51,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 18,82</t>
+          <t>-67,09; -3,98</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,34</t>
+          <t>-1,41; 13,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,11</t>
+          <t>-10,96; 1,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,4</t>
+          <t>-11,64; -0,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,64</t>
+          <t>7,71; 21,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,81; 15,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,6</t>
+          <t>1,96; 13,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>6,32; 16,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>-0,71; 8,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,43</t>
+          <t>-1,73; 6,55</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>-24,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>-31,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>60,97%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-8,34; 98,02</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-52,55; 15,13</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-53,27; -1,22</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>35,25; 141,47</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>8,14; 100,96</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 85,5</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>30,23; 106,01</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 58,1</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 43,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,22</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 2,34</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 1,11</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 1,05</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 6,64</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 4,4</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 2,88</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 4,22</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,34</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 1,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>55,47%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>29,48%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>40,91%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>18,52%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-2,44; 44,0</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-18,07; 21,52</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-15,45; 25,74</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-26,36; 19,21</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>35,14; 75,35</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>11,89; 51,67</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 40,75</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 32,66</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>25,88; 58,26</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>6,0; 32,22</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 33,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 23,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P1001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,35</t>
+          <t>-2,7; 1,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,99</t>
+          <t>-2,55; 1,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,96</t>
+          <t>-2,64; 5,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,51</t>
+          <t>-0,8; 4,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,75</t>
+          <t>-1,79; 2,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 11,75</t>
+          <t>1,42; 11,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,03</t>
+          <t>-0,95; 2,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,74</t>
+          <t>-1,66; 1,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,93</t>
+          <t>0,25; 5,77</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,21; 102,89</t>
+          <t>-72,4; 101,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 141,31</t>
+          <t>-68,36; 139,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,2; 264,05</t>
+          <t>-96,93; 295,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 263,22</t>
+          <t>-22,24; 258,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,12; 176,73</t>
+          <t>-50,15; 187,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,17; 609,26</t>
+          <t>36,67; 644,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 100,84</t>
+          <t>-31,51; 131,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 88,69</t>
+          <t>-46,31; 83,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 306,27</t>
+          <t>5,87; 285,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,48</t>
+          <t>-2,09; 1,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,38</t>
+          <t>-0,86; 3,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,97</t>
+          <t>-2,91; 2,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,09</t>
+          <t>-4,84; 0,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 0,16</t>
+          <t>-5,48; 0,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,22</t>
+          <t>-5,23; 1,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,7</t>
+          <t>-2,6; 0,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,39</t>
+          <t>-2,33; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,28</t>
+          <t>-2,71; 1,64</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,29; 68,57</t>
+          <t>-51,57; 79,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 139,59</t>
+          <t>-22,23; 143,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,31; 86,81</t>
+          <t>-73,72; 98,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 20,68</t>
+          <t>-53,72; 17,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 5,58</t>
+          <t>-60,61; 5,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 36,97</t>
+          <t>-61,15; 29,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 17,76</t>
+          <t>-43,94; 18,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 31,24</t>
+          <t>-37,76; 27,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 27,02</t>
+          <t>-46,64; 41,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,88</t>
+          <t>-1,05; 3,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,03</t>
+          <t>-1,79; 2,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,54</t>
+          <t>-1,1; 4,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,95</t>
+          <t>2,08; 8,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,7</t>
+          <t>-2,63; 2,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,51</t>
+          <t>-3,32; 1,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,17</t>
+          <t>1,23; 5,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,05</t>
+          <t>-1,57; 2,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,2</t>
+          <t>-1,49; 2,21</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 128,84</t>
+          <t>-22,27; 136,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 111,95</t>
+          <t>-33,16; 105,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 152,25</t>
+          <t>-21,65; 142,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,81; 148,67</t>
+          <t>25,11; 145,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 50,58</t>
+          <t>-32,84; 50,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 27,67</t>
+          <t>-41,2; 34,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,57; 110,23</t>
+          <t>19,13; 108,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 45,57</t>
+          <t>-23,63; 43,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 48,14</t>
+          <t>-23,81; 49,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,76</t>
+          <t>-2,45; 4,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,81</t>
+          <t>-2,82; 3,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 1,7</t>
+          <t>-5,69; 1,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 6,27</t>
+          <t>-1,51; 6,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,75</t>
+          <t>-4,63; 2,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 1,55</t>
+          <t>-5,62; 1,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,97</t>
+          <t>-1,08; 3,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,41</t>
+          <t>-2,48; 2,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,59</t>
+          <t>-5,17; 0,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 79,49</t>
+          <t>-32,16; 87,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 81,15</t>
+          <t>-33,31; 77,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 30,07</t>
+          <t>-68,32; 29,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 68,57</t>
+          <t>-12,1; 68,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 31,33</t>
+          <t>-34,92; 26,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 17,16</t>
+          <t>-42,04; 16,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 51,9</t>
+          <t>-10,46; 52,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 33,08</t>
+          <t>-24,79; 33,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 6,07</t>
+          <t>-53,66; 3,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,29</t>
+          <t>-2,47; 5,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,71</t>
+          <t>-5,17; 1,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,26</t>
+          <t>-4,39; 2,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 15,02</t>
+          <t>4,6; 14,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,49</t>
+          <t>1,73; 11,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,98</t>
+          <t>-1,96; 5,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,73</t>
+          <t>2,4; 8,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,3</t>
+          <t>-0,03; 6,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,39</t>
+          <t>-2,19; 2,9</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 88,22</t>
+          <t>-26,16; 83,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 27,43</t>
+          <t>-49,73; 29,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 37,92</t>
+          <t>-40,82; 36,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>32,87; 173,59</t>
+          <t>34,63; 159,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,72; 133,82</t>
+          <t>10,06; 126,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 70,26</t>
+          <t>-15,12; 64,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>20,57; 107,54</t>
+          <t>22,72; 106,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 63,93</t>
+          <t>-0,53; 75,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 41,53</t>
+          <t>-19,52; 35,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 5,74</t>
+          <t>-4,87; 5,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 1,23</t>
+          <t>-8,12; 1,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -0,27</t>
+          <t>-8,42; -0,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,24</t>
+          <t>2,86; 14,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,83; 13,18</t>
+          <t>2,25; 13,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 2,49</t>
+          <t>-13,42; 2,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,54</t>
+          <t>0,62; 8,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,94</t>
+          <t>-1,63; 6,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -0,41</t>
+          <t>-9,83; -0,24</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 59,16</t>
+          <t>-35,73; 60,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-56,44; 12,7</t>
+          <t>-57,2; 21,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,9; -1,86</t>
+          <t>-56,73; 0,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,01; 120,24</t>
+          <t>16,27; 120,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>10,99; 112,56</t>
+          <t>13,04; 111,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-75,57; 18,15</t>
+          <t>-75,79; 19,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,16; 73,92</t>
+          <t>3,07; 76,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 51,89</t>
+          <t>-10,64; 52,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-67,09; -3,98</t>
+          <t>-63,76; -2,42</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 13,46</t>
+          <t>-1,76; 13,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 1,72</t>
+          <t>-10,28; 2,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -0,22</t>
+          <t>-11,09; 0,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,71; 21,89</t>
+          <t>7,98; 20,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 15,4</t>
+          <t>2,52; 16,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,96; 13,18</t>
+          <t>1,65; 12,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,2</t>
+          <t>5,87; 15,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,9</t>
+          <t>-1,42; 8,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 6,55</t>
+          <t>-1,97; 6,45</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 98,02</t>
+          <t>-9,11; 102,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 15,13</t>
+          <t>-50,31; 19,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,27; -1,22</t>
+          <t>-53,71; 3,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,25; 141,47</t>
+          <t>35,32; 136,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>8,14; 100,96</t>
+          <t>10,47; 107,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,8; 85,5</t>
+          <t>7,7; 87,68</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>30,23; 106,01</t>
+          <t>29,86; 101,06</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 58,1</t>
+          <t>-6,95; 53,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 43,94</t>
+          <t>-8,61; 44,5</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,34</t>
+          <t>-0,18; 2,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,11</t>
+          <t>-1,13; 1,14</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,05</t>
+          <t>-1,76; 0,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,64</t>
+          <t>3,76; 6,87</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,33; 4,28</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,88</t>
+          <t>-0,78; 2,87</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>2,2; 4,23</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,5; 2,46</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,72</t>
+          <t>-0,7; 1,68</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 44,0</t>
+          <t>-2,9; 44,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 21,52</t>
+          <t>-17,67; 21,42</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 19,21</t>
+          <t>-26,25; 17,42</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>35,14; 75,35</t>
+          <t>37,5; 79,08</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,89; 51,67</t>
+          <t>12,65; 49,13</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 32,66</t>
+          <t>-8,09; 32,27</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>25,88; 58,26</t>
+          <t>26,84; 57,87</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,0; 32,22</t>
+          <t>6,11; 33,39</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 23,17</t>
+          <t>-8,69; 22,98</t>
         </is>
       </c>
     </row>
